--- a/biology/Histoire de la zoologie et de la botanique/Fritz_Joseph_Encke/Fritz_Joseph_Encke.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fritz_Joseph_Encke/Fritz_Joseph_Encke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fritz Joseph Encke (né le 1er août 1904 à Cologne et mort le 4 mars 2000 à Greifenstein) est un écrivain horticole et jardinier allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fritz Joseph Encke, le troisième et plus jeune fils de l'architecte de jardin Fritz Encke, travaille comme jardinier dans des pépinières allemandes et nord-américaines dans les années 1920. En 1929, il arrive à la Palmeraie de Francfort-sur-le-Main, où il est directeur de 1945 à 1968.
 Il est coéditeur des 9e à 15e éditions de l'ouvrage de référence Zander Handwörterbuch der Pflanzennamen, fondé par Robert Zander et publié de 1964 à 1994.
@@ -543,7 +557,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1968, il reçoit un doctorat honorifique et la Croix fédérale du mérite de 1re classe.
 </t>
@@ -574,7 +590,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pflanzen für Zimmer und Balkon. 1952 (1. bis zur 8. Auflage 1964 unter diesem Titel; 9. Auflage 1973 bis 13. Auflage 1987 als „Zimmerpflanzen“). 
 Sommerblumen. 1961. 
